--- a/data/Range_RunTimes.xlsx
+++ b/data/Range_RunTimes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calypso/Documents/java/IntelliJ/CSC-143/W21/github-workspace/w21-lab03/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\israe\Desktop\CSC-143\lab03-israelrmartinez\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D0E00C-F09A-7447-A074-0387DBB5885B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2F246-60E4-4A36-8817-D8533B136DB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1280" windowWidth="26120" windowHeight="18980" xr2:uid="{68945859-50E6-174E-A919-236F117DAEA9}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="3" xr2:uid="{68945859-50E6-174E-A919-236F117DAEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="range1" sheetId="1" r:id="rId1"/>
@@ -5229,18 +5229,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92AA330-79A0-D748-B6F2-A76D2886D512}">
   <dimension ref="A1:Y145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5273,8 +5273,10 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
       <c r="B2" s="1">
         <v>1000</v>
       </c>
@@ -5304,8 +5306,10 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>17</v>
+      </c>
       <c r="B3" s="1">
         <v>5000</v>
       </c>
@@ -5335,8 +5339,10 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>67</v>
+      </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
@@ -5366,8 +5372,10 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>781</v>
+      </c>
       <c r="B5" s="1">
         <v>25000</v>
       </c>
@@ -5397,8 +5405,10 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2667</v>
+      </c>
       <c r="B6" s="1">
         <v>50000</v>
       </c>
@@ -5428,8 +5438,10 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3373</v>
+      </c>
       <c r="B7" s="1">
         <v>75000</v>
       </c>
@@ -5459,8 +5471,10 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6161</v>
+      </c>
       <c r="B8" s="1">
         <v>100000</v>
       </c>
@@ -5490,8 +5504,10 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9299</v>
+      </c>
       <c r="B9" s="1">
         <v>125000</v>
       </c>
@@ -5521,8 +5537,10 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>38154</v>
+      </c>
       <c r="B10" s="1">
         <v>250000</v>
       </c>
@@ -5552,8 +5570,10 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>151396</v>
+      </c>
       <c r="B11" s="1">
         <v>500000</v>
       </c>
@@ -5583,7 +5603,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5610,7 +5630,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5637,7 +5657,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5664,7 +5684,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5691,7 +5711,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5718,7 +5738,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5745,7 +5765,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5772,7 +5792,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5799,7 +5819,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5826,7 +5846,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5853,7 +5873,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5880,7 +5900,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5907,7 +5927,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5934,7 +5954,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5961,7 +5981,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5988,7 +6008,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6015,7 +6035,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6042,7 +6062,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6069,7 +6089,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6096,7 +6116,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6123,7 +6143,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6150,7 +6170,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6177,7 +6197,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6204,7 +6224,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6231,7 +6251,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6258,7 +6278,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6285,7 +6305,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6312,7 +6332,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6339,7 +6359,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6366,7 +6386,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6393,7 +6413,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6420,7 +6440,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -6447,7 +6467,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6474,7 +6494,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -6501,7 +6521,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -6528,7 +6548,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -6555,7 +6575,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6582,7 +6602,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6609,7 +6629,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -6636,7 +6656,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6663,7 +6683,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6690,7 +6710,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -6717,7 +6737,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6744,7 +6764,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -6771,7 +6791,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -6798,7 +6818,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -6825,7 +6845,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6852,7 +6872,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6879,7 +6899,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6906,7 +6926,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6933,7 +6953,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6960,7 +6980,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6987,7 +7007,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -7014,7 +7034,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -7041,7 +7061,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -7068,7 +7088,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -7095,7 +7115,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -7122,7 +7142,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -7149,7 +7169,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -7176,7 +7196,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -7203,7 +7223,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -7230,7 +7250,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -7257,7 +7277,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -7284,7 +7304,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -7311,7 +7331,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -7338,7 +7358,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -7365,7 +7385,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -7392,7 +7412,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -7419,7 +7439,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -7446,7 +7466,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -7473,7 +7493,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -7500,7 +7520,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -7527,7 +7547,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -7554,7 +7574,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -7581,7 +7601,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -7608,7 +7628,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -7635,7 +7655,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -7662,7 +7682,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -7689,7 +7709,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -7716,7 +7736,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -7743,7 +7763,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -7770,7 +7790,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -7797,7 +7817,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7824,7 +7844,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7851,7 +7871,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7878,7 +7898,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7905,7 +7925,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7932,7 +7952,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7959,7 +7979,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7986,7 +8006,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -8013,7 +8033,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8040,7 +8060,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -8067,7 +8087,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -8094,7 +8114,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -8121,7 +8141,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -8148,7 +8168,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -8175,7 +8195,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -8202,7 +8222,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -8229,7 +8249,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -8256,7 +8276,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -8283,7 +8303,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -8310,7 +8330,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -8337,7 +8357,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -8364,7 +8384,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -8391,7 +8411,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -8418,7 +8438,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -8445,7 +8465,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -8472,7 +8492,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -8499,7 +8519,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -8526,7 +8546,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8553,7 +8573,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8580,7 +8600,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8607,7 +8627,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8634,7 +8654,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8661,7 +8681,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8688,7 +8708,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8715,7 +8735,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8742,7 +8762,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8769,7 +8789,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8796,7 +8816,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8823,7 +8843,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8850,7 +8870,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8877,7 +8897,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8904,7 +8924,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8931,7 +8951,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8958,7 +8978,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8985,7 +9005,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -9012,7 +9032,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -9036,7 +9056,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -9060,7 +9080,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -9084,7 +9104,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -9108,7 +9128,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -9132,7 +9152,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -9156,7 +9176,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="4:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -9191,16 +9211,16 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -9228,8 +9248,10 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
       <c r="B2" s="1">
         <v>1000</v>
       </c>
@@ -9254,8 +9276,10 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
       <c r="B3" s="1">
         <v>5000</v>
       </c>
@@ -9280,8 +9304,10 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>31</v>
+      </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
@@ -9306,8 +9332,10 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>454</v>
+      </c>
       <c r="B5" s="1">
         <v>25000</v>
       </c>
@@ -9332,8 +9360,10 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1470</v>
+      </c>
       <c r="B6" s="1">
         <v>50000</v>
       </c>
@@ -9358,8 +9388,10 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3344</v>
+      </c>
       <c r="B7" s="1">
         <v>75000</v>
       </c>
@@ -9384,8 +9416,10 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5845</v>
+      </c>
       <c r="B8" s="1">
         <v>100000</v>
       </c>
@@ -9410,8 +9444,10 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9187</v>
+      </c>
       <c r="B9" s="1">
         <v>125000</v>
       </c>
@@ -9436,8 +9472,10 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>364483</v>
+      </c>
       <c r="B10" s="1">
         <v>250000</v>
       </c>
@@ -9462,8 +9500,10 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>145182</v>
+      </c>
       <c r="B11" s="1">
         <v>500000</v>
       </c>
@@ -9488,7 +9528,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -9510,7 +9550,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -9532,7 +9572,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9554,7 +9594,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -9576,7 +9616,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -9598,7 +9638,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -9620,7 +9660,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -9642,7 +9682,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -9664,7 +9704,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9686,7 +9726,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9708,7 +9748,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -9730,7 +9770,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -9752,7 +9792,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -9774,7 +9814,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -9796,7 +9836,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -9818,7 +9858,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -9840,7 +9880,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -9862,7 +9902,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -9884,7 +9924,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -9906,7 +9946,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -9928,7 +9968,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -9950,7 +9990,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -9972,7 +10012,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -9994,7 +10034,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -10016,7 +10056,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -10038,7 +10078,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -10060,7 +10100,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -10096,13 +10136,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10130,7 +10170,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>10000000</v>
@@ -10156,7 +10196,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>20000000</v>
@@ -10182,7 +10222,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>40000000</v>
@@ -10208,7 +10248,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>60000000</v>
@@ -10234,7 +10274,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>80000000</v>
@@ -10260,7 +10300,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>100000000</v>
@@ -10286,7 +10326,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>125000000</v>
@@ -10312,7 +10352,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>150000000</v>
@@ -10338,7 +10378,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>200000000</v>
@@ -10364,7 +10404,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>250000000</v>
@@ -10390,7 +10430,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -10412,7 +10452,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -10434,7 +10474,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10456,7 +10496,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -10478,7 +10518,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -10500,7 +10540,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -10522,7 +10562,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -10544,7 +10584,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -10566,7 +10606,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -10588,7 +10628,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -10610,7 +10650,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -10632,7 +10672,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -10654,7 +10694,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -10676,7 +10716,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -10698,7 +10738,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10720,7 +10760,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -10742,7 +10782,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -10764,7 +10804,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -10786,7 +10826,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -10808,7 +10848,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -10830,7 +10870,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -10852,7 +10892,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -10874,7 +10914,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -10896,7 +10936,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -10918,7 +10958,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -10938,7 +10978,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -10958,7 +10998,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -10988,17 +11028,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B5A828-40B2-054F-B72C-9AFDC2C012E8}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11018,8 +11058,10 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
       <c r="B2" s="1">
         <v>1000</v>
       </c>
@@ -11036,8 +11078,10 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>17</v>
+      </c>
       <c r="B3" s="1">
         <v>5000</v>
       </c>
@@ -11054,8 +11098,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>67</v>
+      </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
@@ -11072,8 +11118,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>781</v>
+      </c>
       <c r="B5" s="1">
         <v>25000</v>
       </c>
@@ -11090,8 +11138,10 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2667</v>
+      </c>
       <c r="B6" s="1">
         <v>50000</v>
       </c>
@@ -11108,8 +11158,10 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3373</v>
+      </c>
       <c r="B7" s="1">
         <v>75000</v>
       </c>
@@ -11126,8 +11178,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6161</v>
+      </c>
       <c r="B8" s="1">
         <v>100000</v>
       </c>
@@ -11144,8 +11198,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9299</v>
+      </c>
       <c r="B9" s="1">
         <v>125000</v>
       </c>
@@ -11162,8 +11218,10 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>38154</v>
+      </c>
       <c r="B10" s="1">
         <v>250000</v>
       </c>
@@ -11180,8 +11238,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>151396</v>
+      </c>
       <c r="B11" s="1">
         <v>500000</v>
       </c>
@@ -11198,7 +11258,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -11212,7 +11272,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -11226,7 +11286,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -11246,8 +11306,10 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
       <c r="B15" s="1">
         <v>1000</v>
       </c>
@@ -11264,8 +11326,10 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
       <c r="B16" s="1">
         <v>5000</v>
       </c>
@@ -11282,8 +11346,10 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>31</v>
+      </c>
       <c r="B17" s="1">
         <v>10000</v>
       </c>
@@ -11300,8 +11366,10 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>454</v>
+      </c>
       <c r="B18" s="1">
         <v>25000</v>
       </c>
@@ -11318,8 +11386,10 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1470</v>
+      </c>
       <c r="B19" s="1">
         <v>50000</v>
       </c>
@@ -11336,8 +11406,10 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3344</v>
+      </c>
       <c r="B20" s="1">
         <v>75000</v>
       </c>
@@ -11354,8 +11426,10 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5845</v>
+      </c>
       <c r="B21" s="1">
         <v>100000</v>
       </c>
@@ -11372,8 +11446,10 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9187</v>
+      </c>
       <c r="B22" s="1">
         <v>125000</v>
       </c>
@@ -11390,8 +11466,10 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>364483</v>
+      </c>
       <c r="B23" s="1">
         <v>250000</v>
       </c>
@@ -11408,8 +11486,10 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>145182</v>
+      </c>
       <c r="B24" s="1">
         <v>500000</v>
       </c>
@@ -11426,7 +11506,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -11440,7 +11520,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -11454,7 +11534,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -11474,8 +11554,10 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
       <c r="B28" s="1">
         <v>10000000</v>
       </c>
@@ -11492,8 +11574,10 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
       <c r="B29" s="1">
         <v>20000000</v>
       </c>
@@ -11510,8 +11594,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>16</v>
+      </c>
       <c r="B30" s="1">
         <v>40000000</v>
       </c>
@@ -11528,8 +11614,10 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
       <c r="B31" s="1">
         <v>60000000</v>
       </c>
@@ -11546,8 +11634,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="1">
         <v>80000000</v>
       </c>
@@ -11564,8 +11654,10 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
       <c r="B33" s="1">
         <v>100000000</v>
       </c>
@@ -11582,8 +11674,10 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
       <c r="B34" s="1">
         <v>125000000</v>
       </c>
@@ -11600,8 +11694,10 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>47</v>
+      </c>
       <c r="B35" s="1">
         <v>150000000</v>
       </c>
@@ -11618,8 +11714,10 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>62</v>
+      </c>
       <c r="B36" s="1">
         <v>200000000</v>
       </c>
@@ -11636,8 +11734,10 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>78</v>
+      </c>
       <c r="B37" s="1">
         <v>250000000</v>
       </c>
@@ -11654,17 +11754,17 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
